--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2389.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2389.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.057368397333138</v>
+        <v>0.9444109797477722</v>
       </c>
       <c r="B1">
-        <v>2.329477893943132</v>
+        <v>1.951615214347839</v>
       </c>
       <c r="C1">
-        <v>7.412251383354032</v>
+        <v>4.156449794769287</v>
       </c>
       <c r="D1">
-        <v>1.814419807095208</v>
+        <v>3.277727127075195</v>
       </c>
       <c r="E1">
-        <v>1.009116494550016</v>
+        <v>1.445918798446655</v>
       </c>
     </row>
   </sheetData>
